--- a/plantilla/templete.xlsx
+++ b/plantilla/templete.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FDK\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FDK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sobre" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="30">
   <si>
     <t>Paquetería</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Peso por KG</t>
-  </si>
-  <si>
-    <t>0Kg - 15Kg</t>
   </si>
   <si>
     <t>5Kg - 10Kg</t>
@@ -476,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,7 +3038,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3058,7 +3055,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,7 +3072,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3092,7 +3089,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3109,7 +3106,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3126,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3143,7 +3140,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3160,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3177,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3194,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3211,7 +3208,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3228,7 +3225,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3245,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3262,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3279,7 +3276,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3296,7 +3293,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3313,7 +3310,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3330,7 +3327,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3347,7 +3344,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3364,7 +3361,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,7 +3378,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3398,7 +3395,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,7 +3412,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3432,7 +3429,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3449,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3466,7 +3463,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3483,7 +3480,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3500,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3517,7 +3514,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3534,7 +3531,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3551,7 +3548,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3568,7 +3565,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3585,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3602,7 +3599,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3619,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3636,7 +3633,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3653,7 +3650,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3670,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3687,7 +3684,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3704,7 +3701,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3721,7 +3718,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3738,7 +3735,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3755,7 +3752,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3772,7 +3769,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3789,7 +3786,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3806,7 +3803,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,7 +3820,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3840,7 +3837,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3857,7 +3854,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3874,7 +3871,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3891,7 +3888,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,7 +3905,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -6381,7 +6378,7 @@
   <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6403,7 +6400,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6414,7 +6411,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -6428,7 +6425,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -6440,7 +6437,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6449,63 +6446,63 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/plantilla/templete.xlsx
+++ b/plantilla/templete.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sobre" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="32">
   <si>
     <t>Paquetería</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>10Kg - 15Kg</t>
+  </si>
+  <si>
+    <t>Sendex</t>
+  </si>
+  <si>
+    <t>UPS</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G400"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -595,12 +601,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
@@ -2953,24 +2953,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de paquetería" error="Esta paqueteria no fue encontrada, puedes añadirla en la hoja Paqueterias &amp; servicios" promptTitle="Paqueterias" prompt="Seleccion de paquetería">
           <x14:formula1>
             <xm:f>'Ajustes de Variables'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A6</xm:sqref>
+          <xm:sqref>A2:A6 A8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No se encontro el servicio" error="Selecciona un servicio de la lista" promptTitle="Servicios" prompt="Seleccion de servicios">
           <x14:formula1>
             <xm:f>'Ajustes de Variables'!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de paquetería" error="Esta paqueteria no fue encontrada, puedes añadirla en la hoja Paqueterias &amp; servicios" promptTitle="Paqueterias" prompt="Seleccion de paquetería">
-          <x14:formula1>
-            <xm:f>'Ajustes de Variables'!$A$2:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>A8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de paquetería" error="Esta paqueteria no fue encontrada, puedes añadirla en la hoja Ajustes de variables." promptTitle="Paqueterias" prompt="Seleccion de paquetería">
           <x14:formula1>
@@ -2994,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6378,7 +6372,7 @@
   <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6450,14 +6444,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
